--- a/Prova Aptidão Profisional/PAP Documentos/PAP_Site/Cronograma_Ayres.xlsx
+++ b/Prova Aptidão Profisional/PAP Documentos/PAP_Site/Cronograma_Ayres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\major\Documents\Windows\Documents\NEW ETPM\PAP_Site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\major\Documents\Windows\Documents\site-pap\Prova Aptidão Profisional\PAP Documentos\PAP_Site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D9BF83-0EE9-4FD3-8B34-73EC55F523E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6ED5FB-828C-46BB-ABA7-FEBC7F390659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Janeiro</t>
   </si>
@@ -66,15 +66,9 @@
     <t>Pré-requisitos para a realização do site*(1)</t>
   </si>
   <si>
-    <t>Realização da página inicial (menu, redes socias…)</t>
-  </si>
-  <si>
     <t>Realização das páginas com os programas</t>
   </si>
   <si>
-    <t>Paginas especiais (agradecimentos, créditos)</t>
-  </si>
-  <si>
     <t>Otimização do site</t>
   </si>
   <si>
@@ -84,23 +78,42 @@
     <t>Hospedagem</t>
   </si>
   <si>
-    <t>Relatorio</t>
-  </si>
-  <si>
-    <t>Powerpoint</t>
-  </si>
-  <si>
-    <t>Video publicitario, criação de redes socias</t>
-  </si>
-  <si>
-    <t>4ª- Até 1semana Antes da PAP</t>
+    <t>Realização da página inicial</t>
+  </si>
+  <si>
+    <t>Relatório</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Layout </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do site</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,75 +122,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift SemiCondensed"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Franklin Gothic Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Bahnschrift SemiCondensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,18 +276,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -477,27 +525,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,60 +721,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,409 +1051,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Y18"/>
+  <dimension ref="A2:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="24" max="24" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="22" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E3" s="11" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:23" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="11" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="11" t="s">
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="11" t="s">
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="1"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="4"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="13"/>
+    </row>
+    <row r="7" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="4"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="13"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+    <row r="8" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="4"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="13"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+    <row r="10" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="37"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="40"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="40"/>
-    </row>
-    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="5"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+  <mergeCells count="13">
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="U3:V3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:D5"/>
@@ -1253,11 +1367,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
